--- a/Kostenkalkulation.xlsx
+++ b/Kostenkalkulation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HobauerSv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HobauerSv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Dienstleistungskalkulation</t>
   </si>
@@ -150,6 +150,42 @@
   </si>
   <si>
     <t>Testen und Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Pauschalkosten</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse</t>
+  </si>
+  <si>
+    <t>Dokumentation erstellen</t>
+  </si>
+  <si>
+    <t>Präsentation erstellen</t>
+  </si>
+  <si>
+    <t>Kostenanalyse</t>
+  </si>
+  <si>
+    <t>Zeitplanung</t>
+  </si>
+  <si>
+    <t>Kundengespräche</t>
+  </si>
+  <si>
+    <t>Teamgespräche</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>1 LE</t>
   </si>
 </sst>
 </file>
@@ -184,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,34 +229,132 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,553 +669,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>45</v>
-      </c>
-      <c r="C11">
+      <c r="C11" s="6">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <f>SUM(B11*C11)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="7">
+        <f>SUM(C11*D11)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>45</v>
-      </c>
-      <c r="C12">
+      <c r="C12" s="3">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
         <v>1.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" ref="D12:D42" si="0">SUM(B12*C12)</f>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E52" si="0">SUM(C12*D12)</f>
         <v>67.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>45</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="3">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>45</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="3">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>45</v>
-      </c>
-      <c r="C15">
+      <c r="C15" s="3">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>45</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2">
         <v>1.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>45</v>
-      </c>
-      <c r="C17">
+      <c r="C17" s="3">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>45</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="3">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>45</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="3">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>45</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="3">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>45</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="3">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>45</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="3">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>45</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="3">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
-        <v>45</v>
-      </c>
-      <c r="C24">
+      <c r="C25" s="3">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
-        <v>50</v>
-      </c>
-      <c r="C25">
+      <c r="C27" s="6">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
-        <v>50</v>
-      </c>
-      <c r="C26">
+      <c r="C28" s="3">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
-        <v>50</v>
-      </c>
-      <c r="C27">
+      <c r="C29" s="3">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
-        <v>50</v>
-      </c>
-      <c r="C28">
+      <c r="C30" s="3">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
         <v>8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
-        <v>50</v>
-      </c>
-      <c r="C29">
+      <c r="C31" s="3">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
-        <v>50</v>
-      </c>
-      <c r="C30">
+      <c r="C32" s="3">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
-        <v>50</v>
-      </c>
-      <c r="C31">
+      <c r="C33" s="3">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
         <v>9</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:D39" si="1">SUM(B31*C31)</f>
+      <c r="E33" s="9">
+        <f t="shared" ref="E33:E49" si="1">SUM(C33*D33)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
-        <v>50</v>
-      </c>
-      <c r="C32">
+      <c r="C34" s="3">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2">
         <v>16</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2">
-        <v>50</v>
-      </c>
-      <c r="C33">
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2">
         <v>16</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E35" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2">
-        <v>50</v>
-      </c>
-      <c r="C34">
+      <c r="C36" s="3">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2">
         <v>12</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E36" s="9">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2">
-        <v>50</v>
-      </c>
-      <c r="C35">
+      <c r="C37" s="3">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2">
         <v>12</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E37" s="9">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2">
-        <v>50</v>
-      </c>
-      <c r="C36">
+      <c r="C38" s="3">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2">
         <v>12</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E38" s="9">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2">
-        <v>50</v>
-      </c>
-      <c r="C37">
+      <c r="C39" s="3">
+        <v>50</v>
+      </c>
+      <c r="D39" s="2">
         <v>12</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E39" s="9">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="2">
-        <v>50</v>
-      </c>
-      <c r="C38">
+      <c r="C40" s="3">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2">
         <v>8</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E40" s="9">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2">
-        <v>50</v>
-      </c>
-      <c r="C39">
+      <c r="C41" s="12">
+        <v>50</v>
+      </c>
+      <c r="D41" s="11">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E41" s="13">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="6">
+        <v>55</v>
+      </c>
+      <c r="D42" s="5">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3">
+        <v>55</v>
+      </c>
+      <c r="D46" s="18">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="12">
+        <v>55</v>
+      </c>
+      <c r="D49" s="11">
+        <v>5</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B40">
+      <c r="C50" s="19">
         <v>120</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
+      <c r="D50" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="7">
+        <f>SUM(C50*1)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41">
+      <c r="C51" s="14">
         <v>120</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
+      <c r="D51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="9">
+        <f>SUM(C51*1)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="4">
+      <c r="C52" s="20">
         <v>120</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
+      <c r="D52" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="13">
+        <f>SUM(C52*1)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
-        <f>SUM(C11:C42)</f>
-        <v>171.5</v>
-      </c>
-      <c r="D43" s="5">
-        <f>SUM(D11:D42)</f>
-        <v>8632.5</v>
+      <c r="D53">
+        <f>SUM(D11:D52)</f>
+        <v>203.5</v>
+      </c>
+      <c r="E53" s="14">
+        <f>SUM(E11:E52)</f>
+        <v>10517.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A11:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Kostenkalkulation.xlsx
+++ b/Kostenkalkulation.xlsx
@@ -53,9 +53,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>2x Windows Server (VMs)</t>
-  </si>
-  <si>
     <t>DomainController aufsetzen</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t>Print-Server aufsetzen</t>
   </si>
   <si>
-    <t>Installation Client-Rechner für Schulleiter</t>
-  </si>
-  <si>
-    <t>Sonstige Clients</t>
-  </si>
-  <si>
     <t>Einrichtung Router mit Internetzugang</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Komponenten verknüpfen</t>
   </si>
   <si>
-    <t>Testen und Fehlerbehebung</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>1 LE</t>
+  </si>
+  <si>
+    <t>Installation Clients</t>
+  </si>
+  <si>
+    <t>+ Gewinn</t>
+  </si>
+  <si>
+    <t>+ 19% MwSt.</t>
+  </si>
+  <si>
+    <t>Zukunftsszenario erstellen</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -308,41 +308,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -354,6 +367,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +750,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,220 +764,222 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13">
+        <v>120</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6">
+        <f>SUM(C11*1)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>120</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(C12*1)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(C13*1)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C14" s="5">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <f>SUM(C14*D14)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" ref="E15:E34" si="0">SUM(C15*D15)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
-        <f>SUM(C11*D11)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E52" si="0">SUM(C12*D12)</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="3">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="3">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2" t="s">
+      <c r="C23" s="3">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>45</v>
@@ -943,478 +987,468 @@
       <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>45</v>
       </c>
       <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A26" s="24"/>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6">
-        <v>50</v>
-      </c>
-      <c r="D27" s="5">
-        <v>8</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="22">
+        <v>45</v>
+      </c>
+      <c r="D28" s="21">
+        <v>5</v>
+      </c>
+      <c r="E28" s="23">
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
         <v>50</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
         <v>50</v>
       </c>
       <c r="D30" s="2">
-        <v>8</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>16</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3">
         <v>50</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
         <v>50</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3">
         <v>50</v>
       </c>
       <c r="D33" s="2">
-        <v>9</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" ref="E33:E49" si="1">SUM(C33*D33)</f>
-        <v>450</v>
+        <v>8</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>50</v>
       </c>
       <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" ref="E35:E50" si="1">SUM(C35*D35)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2">
         <v>16</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3">
         <v>50</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="2">
         <v>16</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3">
         <v>50</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <v>12</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3">
         <v>50</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>12</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E39" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3">
         <v>50</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>12</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E40" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
         <v>50</v>
       </c>
-      <c r="D39" s="2">
-        <v>12</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3">
         <v>50</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>8</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E42" s="7">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5">
+        <v>55</v>
+      </c>
+      <c r="D43" s="4">
+        <v>16</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12">
-        <v>50</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="C44" s="3">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3">
+        <v>55</v>
+      </c>
+      <c r="D45" s="12">
         <v>10</v>
       </c>
-      <c r="E41" s="13">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="6">
-        <v>55</v>
-      </c>
-      <c r="D42" s="5">
-        <v>10</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="E45" s="7">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3">
         <v>55</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D46" s="12">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3">
+        <v>55</v>
+      </c>
+      <c r="D47" s="12">
         <v>4</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E47" s="7">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3">
         <v>55</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="3">
-        <v>55</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="3">
-        <v>55</v>
-      </c>
-      <c r="D46" s="18">
+      <c r="D48" s="2">
         <v>4</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E48" s="7">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3">
         <v>55</v>
       </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3">
-        <v>55</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="7">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="9">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <f>SUM(D14:D50)</f>
+        <v>235</v>
+      </c>
+      <c r="E51" s="11">
+        <f>SUM(E11:E50)</f>
+        <v>12170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="12">
-        <v>55</v>
-      </c>
-      <c r="D49" s="11">
-        <v>5</v>
-      </c>
-      <c r="E49" s="13">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="19">
-        <v>120</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="7">
-        <f>SUM(C50*1)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="14">
-        <v>120</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="9">
-        <f>SUM(C51*1)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="20">
-        <v>120</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="13">
-        <f>SUM(C52*1)</f>
-        <v>120</v>
+      <c r="E52" s="19">
+        <f>SUM(E51/100*15)+E51</f>
+        <v>13995.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53">
-        <f>SUM(D11:D52)</f>
-        <v>203.5</v>
-      </c>
-      <c r="E53" s="14">
-        <f>SUM(E11:E52)</f>
-        <v>10517.5</v>
+      <c r="D53" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="19">
+        <f>SUM(E52/100*19)+E52</f>
+        <v>16654.645</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A27:A41"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
